--- a/biology/Médecine/Liste_de_codes_CIM-10/Liste_de_codes_CIM-10.xlsx
+++ b/biology/Médecine/Liste_de_codes_CIM-10/Liste_de_codes_CIM-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification internationale des maladies, 10e révision (CIM-10) est une classification statistique non exclusivement médicale codant notamment les maladies, signes, symptômes, circonstances sociales et causes externes de maladies ou de blessures, publiée par l'Organisation mondiale de la santé (OMS)[1]. La liste des codes contient 14 400 codes différents et permet de coder  de nombreux diagnostics et situations cliniques ou sociales. Utilisant des sous-classifications facultatives, le nombre de codes peut s'étendre jusqu'à 16 000.
-L'OMS garantit des informations détaillées de la CIM en ligne. Les projets de la CIM ont débuté en 1983 et ont été complétés en 1989, pour une adoption le 17 mai 1990[2] et une publication en trois volumes en 1992[3], 1993[4] et 1994[5], pour rentrer en application à compter du 1er janvier 1993[6].
-Son adoption fut tardive, la France ne l'appliquant à compter de 2000, les États-Unis de 1999[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification internationale des maladies, 10e révision (CIM-10) est une classification statistique non exclusivement médicale codant notamment les maladies, signes, symptômes, circonstances sociales et causes externes de maladies ou de blessures, publiée par l'Organisation mondiale de la santé (OMS). La liste des codes contient 14 400 codes différents et permet de coder  de nombreux diagnostics et situations cliniques ou sociales. Utilisant des sous-classifications facultatives, le nombre de codes peut s'étendre jusqu'à 16 000.
+L'OMS garantit des informations détaillées de la CIM en ligne. Les projets de la CIM ont débuté en 1983 et ont été complétés en 1989, pour une adoption le 17 mai 1990 et une publication en trois volumes en 1992, 1993 et 1994, pour rentrer en application à compter du 1er janvier 1993.
+Son adoption fut tardive, la France ne l'appliquant à compter de 2000, les États-Unis de 1999.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
